--- a/halffabricat_orders/609985.xlsx
+++ b/halffabricat_orders/609985.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!doc\Work_2\Calculations\Замовлення напівфабрикатів BTH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!doc\python\CBS\xls\Extracting_calculations\halffabricat_orders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AD6D20-643A-4060-A438-B3E1EEE94979}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC005C14-9DC8-4570-956A-03AA9DDB6802}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <definedName name="start_data">Аркуш1!$A:$K</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1091,7 +1090,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>17</v>
@@ -1116,7 +1115,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>17</v>
